--- a/data/option_data/call/MMM.xlsx
+++ b/data/option_data/call/MMM.xlsx
@@ -558,19 +558,19 @@
         <v>98</v>
       </c>
       <c r="G2">
-        <v>94.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>80</v>
       </c>
       <c r="I2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.4056455920410156</v>
+        <v>1E-05</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>94</v>
       </c>
       <c r="K3">
-        <v>0.3787903918457031</v>
+        <v>0.3785462536621094</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>0.4334163104248047</v>
+        <v>0.4334773449707031</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -669,19 +669,19 @@
         <v>80.75</v>
       </c>
       <c r="G5">
-        <v>74.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.3230048168945311</v>
+        <v>1E-05</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -707,19 +707,19 @@
         <v>72.08</v>
       </c>
       <c r="G6">
-        <v>66.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>110</v>
       </c>
       <c r="I6">
-        <v>69.25</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0.2717357983398437</v>
+        <v>1E-05</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -745,19 +745,19 @@
         <v>65.25</v>
       </c>
       <c r="G7">
-        <v>61.35</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>115</v>
       </c>
       <c r="I7">
-        <v>65.05</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <v>0.2720714883422851</v>
+        <v>1E-05</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -783,19 +783,19 @@
         <v>60.5</v>
       </c>
       <c r="G8">
-        <v>57.3</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>120</v>
       </c>
       <c r="I8">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
       <c r="K8">
-        <v>0.2454299090576172</v>
+        <v>1E-05</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -821,19 +821,19 @@
         <v>55.45</v>
       </c>
       <c r="G9">
-        <v>53.15</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>125</v>
       </c>
       <c r="I9">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0.2611157873535156</v>
+        <v>1E-05</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -859,19 +859,19 @@
         <v>50.52</v>
       </c>
       <c r="G10">
-        <v>48.95</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>130</v>
       </c>
       <c r="I10">
-        <v>52.55</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>0.258796474609375</v>
+        <v>1E-05</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -897,19 +897,19 @@
         <v>49.05</v>
       </c>
       <c r="G11">
-        <v>45.35</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>135</v>
       </c>
       <c r="I11">
-        <v>48.25</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.2486647399902344</v>
+        <v>1E-05</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -932,22 +932,22 @@
         <v>140</v>
       </c>
       <c r="F12">
-        <v>44.16</v>
+        <v>43.25</v>
       </c>
       <c r="G12">
-        <v>41.85</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>140</v>
       </c>
       <c r="I12">
-        <v>45.05</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.2537306072998047</v>
+        <v>1E-05</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -973,19 +973,19 @@
         <v>38.6</v>
       </c>
       <c r="G13">
-        <v>38.2</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>145</v>
       </c>
       <c r="I13">
-        <v>41.45</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.2502211209106445</v>
+        <v>1E-05</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1011,19 +1011,19 @@
         <v>37.28</v>
       </c>
       <c r="G14">
-        <v>35.45</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>150</v>
       </c>
       <c r="I14">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
-        <v>0.2593000096130372</v>
+        <v>1E-05</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1049,19 +1049,19 @@
         <v>40.3</v>
       </c>
       <c r="G15">
-        <v>32.35</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>155</v>
       </c>
       <c r="I15">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15">
-        <v>0.2587354400634766</v>
+        <v>1E-05</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1087,19 +1087,19 @@
         <v>30.92</v>
       </c>
       <c r="G16">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>160</v>
       </c>
       <c r="I16">
-        <v>32.2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>6</v>
       </c>
       <c r="K16">
-        <v>0.2471236177062988</v>
+        <v>1E-05</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1125,19 +1125,19 @@
         <v>27.27</v>
       </c>
       <c r="G17">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>165</v>
       </c>
       <c r="I17">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>0.2475966354370117</v>
+        <v>1E-05</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1163,19 +1163,19 @@
         <v>24.7</v>
       </c>
       <c r="G18">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>170</v>
       </c>
       <c r="I18">
-        <v>26.85</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
       <c r="K18">
-        <v>0.2445754254150391</v>
+        <v>1E-05</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1198,22 +1198,22 @@
         <v>175</v>
       </c>
       <c r="F19">
-        <v>23.6</v>
+        <v>23.12</v>
       </c>
       <c r="G19">
-        <v>22.15</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>175</v>
       </c>
       <c r="I19">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>0.2430190444946289</v>
+        <v>1E-05</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1239,19 +1239,19 @@
         <v>22.05</v>
       </c>
       <c r="G20">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>180</v>
       </c>
       <c r="I20">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0.2382583499145507</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>19.85</v>
       </c>
       <c r="G21">
-        <v>17.6</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>185</v>
       </c>
       <c r="I21">
-        <v>19.9</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21">
-        <v>0.2390823162841797</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1315,19 +1315,19 @@
         <v>17.1</v>
       </c>
       <c r="G22">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>190</v>
       </c>
       <c r="I22">
-        <v>18.25</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0.2408828353881836</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1353,19 +1353,19 @@
         <v>16.57</v>
       </c>
       <c r="G23">
-        <v>14.35</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>195</v>
       </c>
       <c r="I23">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0.2396316271972656</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1388,22 +1388,22 @@
         <v>200</v>
       </c>
       <c r="F24">
-        <v>14.1</v>
+        <v>14.75</v>
       </c>
       <c r="G24">
-        <v>13.35</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>200</v>
       </c>
       <c r="I24">
-        <v>15.35</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0.2442092181396485</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>12</v>
       </c>
       <c r="G25">
-        <v>10.05</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>210</v>
       </c>
       <c r="I25">
-        <v>12.55</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0.2433242172241211</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1467,19 +1467,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G26">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>220</v>
       </c>
       <c r="I26">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0.2537611245727539</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="G27">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>230</v>
       </c>
       <c r="I27">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>0.2476271527099609</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1543,19 +1543,19 @@
         <v>5.6</v>
       </c>
       <c r="G28">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>240</v>
       </c>
       <c r="I28">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0.2578504391479493</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>5.1</v>
       </c>
       <c r="G29">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>250</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0.2497023272705078</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1619,19 +1619,19 @@
         <v>4.2</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>260</v>
       </c>
       <c r="I30">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>0.2527540545654297</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>3.3</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>270</v>
       </c>
       <c r="I31">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>11</v>
       </c>
       <c r="K31">
-        <v>0.2623669955444337</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>

--- a/data/option_data/call/MMM.xlsx
+++ b/data/option_data/call/MMM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>symbol</t>
   </si>
@@ -497,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,22 +523,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -558,25 +555,22 @@
         <v>98</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>97.8</v>
       </c>
       <c r="H2">
         <v>80</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1E-05</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3580386462402344</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -601,17 +595,14 @@
       <c r="H3">
         <v>85</v>
       </c>
-      <c r="I3">
-        <v>94</v>
-      </c>
-      <c r="K3">
-        <v>0.3785462536621094</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3">
+        <v>1E-05</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -637,19 +628,16 @@
         <v>90</v>
       </c>
       <c r="I4">
-        <v>91.5</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0.4334773449707031</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3559634716796874</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -669,25 +657,22 @@
         <v>80.75</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>78.3</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>1E-05</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2970651348876953</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -707,25 +692,22 @@
         <v>72.08</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="H6">
         <v>110</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1E-05</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2676464837646484</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -745,25 +727,22 @@
         <v>65.25</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="H7">
         <v>115</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>1E-05</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2619702709960938</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -783,25 +762,22 @@
         <v>60.5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>60.95</v>
       </c>
       <c r="H8">
         <v>120</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>1E-05</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2409133526611328</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -821,25 +797,22 @@
         <v>55.45</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>56.65</v>
       </c>
       <c r="H9">
         <v>125</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1E-05</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.255164919128418</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -856,28 +829,25 @@
         <v>130</v>
       </c>
       <c r="F10">
-        <v>50.52</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>52.35</v>
       </c>
       <c r="H10">
         <v>130</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>1E-05</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2434768035888672</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -897,25 +867,22 @@
         <v>49.05</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="H11">
         <v>135</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1E-05</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2472914627075195</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -935,25 +902,22 @@
         <v>43.25</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>44.9</v>
       </c>
       <c r="H12">
         <v>140</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1E-05</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2301712725830078</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -973,25 +937,22 @@
         <v>38.6</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>41.1</v>
       </c>
       <c r="H13">
         <v>145</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1E-05</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2387466262817383</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1011,25 +972,22 @@
         <v>37.28</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="H14">
         <v>150</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>1E-05</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2325058439636231</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1049,25 +1007,22 @@
         <v>40.3</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H15">
         <v>155</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>1E-05</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.239967317199707</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1084,28 +1039,25 @@
         <v>160</v>
       </c>
       <c r="F16">
-        <v>30.92</v>
+        <v>30.7</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>31.35</v>
       </c>
       <c r="H16">
         <v>160</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <v>1E-05</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2438430108642578</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1122,28 +1074,25 @@
         <v>165</v>
       </c>
       <c r="F17">
-        <v>27.27</v>
+        <v>28.05</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="H17">
         <v>165</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>1E-05</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2415389567565918</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1163,25 +1112,22 @@
         <v>24.7</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>25.75</v>
       </c>
       <c r="H18">
         <v>170</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>1E-05</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2364273135375977</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1198,28 +1144,25 @@
         <v>175</v>
       </c>
       <c r="F19">
-        <v>23.12</v>
+        <v>23.2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="H19">
         <v>175</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>1E-05</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2333755862426758</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1239,25 +1182,22 @@
         <v>22.05</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="H20">
         <v>180</v>
       </c>
       <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.2322464471435547</v>
+      </c>
+      <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0.0039162109375</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1277,25 +1217,22 @@
         <v>19.85</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="H21">
         <v>185</v>
       </c>
       <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>0.2314377394104004</v>
+      </c>
+      <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1315,25 +1252,22 @@
         <v>17.1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="H22">
         <v>190</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.2411117149353027</v>
+      </c>
+      <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1353,25 +1287,22 @@
         <v>16.57</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>16.05</v>
       </c>
       <c r="H23">
         <v>195</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.2320786021423339</v>
+      </c>
+      <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1391,25 +1322,22 @@
         <v>14.75</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="H24">
         <v>200</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.2347488635253906</v>
+      </c>
+      <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1429,25 +1357,22 @@
         <v>12</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="H25">
         <v>210</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.2361068821716308</v>
+      </c>
+      <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1467,25 +1392,22 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H26">
         <v>220</v>
       </c>
       <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.2384719708251953</v>
+      </c>
+      <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1502,28 +1424,25 @@
         <v>230</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>7.72</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="H27">
         <v>230</v>
       </c>
       <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0.2458724095153809</v>
+      </c>
+      <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1543,25 +1462,22 @@
         <v>5.6</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="H28">
         <v>240</v>
       </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.2480849118041992</v>
+      </c>
+      <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1578,28 +1494,25 @@
         <v>250</v>
       </c>
       <c r="F29">
-        <v>5.1</v>
+        <v>5.04</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="H29">
         <v>250</v>
       </c>
       <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>0.2446364599609375</v>
+      </c>
+      <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1619,25 +1532,22 @@
         <v>4.2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H30">
         <v>260</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.2459487026977539</v>
+      </c>
+      <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1657,21 +1567,18 @@
         <v>3.3</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="H31">
         <v>270</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J31">
-        <v>11</v>
-      </c>
-      <c r="K31">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L31" t="b">
+        <v>0.2483595672607422</v>
+      </c>
+      <c r="K31" t="b">
         <v>0</v>
       </c>
     </row>
